--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.476790666666667</v>
+        <v>2.018720333333333</v>
       </c>
       <c r="H2">
-        <v>4.430372</v>
+        <v>6.056161</v>
       </c>
       <c r="I2">
-        <v>0.01966406119907831</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="J2">
-        <v>0.0196640611990783</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>34.90512539335511</v>
+        <v>3.873735232862111</v>
       </c>
       <c r="R2">
-        <v>314.146128540196</v>
+        <v>34.863617095759</v>
       </c>
       <c r="S2">
-        <v>0.001342631538287784</v>
+        <v>0.0001661481591288336</v>
       </c>
       <c r="T2">
-        <v>0.001342631538287783</v>
+        <v>0.0001661481591288336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.476790666666667</v>
+        <v>2.018720333333333</v>
       </c>
       <c r="H3">
-        <v>4.430372</v>
+        <v>6.056161</v>
       </c>
       <c r="I3">
-        <v>0.01966406119907831</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="J3">
-        <v>0.0196640611990783</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>267.725004296081</v>
+        <v>365.9705617818905</v>
       </c>
       <c r="R3">
-        <v>2409.525038664728</v>
+        <v>3293.735056037014</v>
       </c>
       <c r="S3">
-        <v>0.01029808746725145</v>
+        <v>0.01569682269959378</v>
       </c>
       <c r="T3">
-        <v>0.01029808746725145</v>
+        <v>0.01569682269959378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.476790666666667</v>
+        <v>2.018720333333333</v>
       </c>
       <c r="H4">
-        <v>4.430372</v>
+        <v>6.056161</v>
       </c>
       <c r="I4">
-        <v>0.01966406119907831</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="J4">
-        <v>0.0196640611990783</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>44.51495915243289</v>
+        <v>58.63912677530412</v>
       </c>
       <c r="R4">
-        <v>400.634632371896</v>
+        <v>527.752140977737</v>
       </c>
       <c r="S4">
-        <v>0.001712275415433021</v>
+        <v>0.002515087475258503</v>
       </c>
       <c r="T4">
-        <v>0.001712275415433021</v>
+        <v>0.002515087475258504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.476790666666667</v>
+        <v>2.018720333333333</v>
       </c>
       <c r="H5">
-        <v>4.430372</v>
+        <v>6.056161</v>
       </c>
       <c r="I5">
-        <v>0.01966406119907831</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="J5">
-        <v>0.0196640611990783</v>
+        <v>0.02546714762636305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>164.0722498866342</v>
+        <v>165.2817286980085</v>
       </c>
       <c r="R5">
-        <v>1476.650248979708</v>
+        <v>1487.535558282076</v>
       </c>
       <c r="S5">
-        <v>0.006311066778106051</v>
+        <v>0.00708908929238193</v>
       </c>
       <c r="T5">
-        <v>0.00631106677810605</v>
+        <v>0.00708908929238193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>134.419228</v>
       </c>
       <c r="I6">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284588</v>
       </c>
       <c r="J6">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>1059.035225172511</v>
+        <v>85.9793026436591</v>
       </c>
       <c r="R6">
-        <v>9531.317026552602</v>
+        <v>773.8137237929318</v>
       </c>
       <c r="S6">
-        <v>0.04073596864215832</v>
+        <v>0.003687733414570544</v>
       </c>
       <c r="T6">
-        <v>0.04073596864215832</v>
+        <v>0.003687733414570545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>134.419228</v>
       </c>
       <c r="I7">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284588</v>
       </c>
       <c r="J7">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>8122.881869462853</v>
@@ -883,10 +883,10 @@
         <v>73105.93682516566</v>
       </c>
       <c r="S7">
-        <v>0.3124480217969089</v>
+        <v>0.3483980675765177</v>
       </c>
       <c r="T7">
-        <v>0.3124480217969088</v>
+        <v>0.3483980675765178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>134.419228</v>
       </c>
       <c r="I8">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284588</v>
       </c>
       <c r="J8">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284589</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>1350.6013589201</v>
+        <v>1301.521896747875</v>
       </c>
       <c r="R8">
-        <v>12155.4122302809</v>
+        <v>11713.69707073087</v>
       </c>
       <c r="S8">
-        <v>0.05195110917681087</v>
+        <v>0.05582350217847858</v>
       </c>
       <c r="T8">
-        <v>0.05195110917681087</v>
+        <v>0.05582350217847859</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>134.419228</v>
       </c>
       <c r="I9">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284588</v>
       </c>
       <c r="J9">
-        <v>0.5966153464595884</v>
+        <v>0.5652548410284589</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>4978.016556168298</v>
+        <v>3668.502599929516</v>
       </c>
       <c r="R9">
-        <v>44802.14900551468</v>
+        <v>33016.52339936564</v>
       </c>
       <c r="S9">
-        <v>0.1914802468437103</v>
+        <v>0.157345537858892</v>
       </c>
       <c r="T9">
-        <v>0.1914802468437103</v>
+        <v>0.157345537858892</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.25121566666667</v>
+        <v>31.416885</v>
       </c>
       <c r="H10">
-        <v>78.753647</v>
+        <v>94.25065499999999</v>
       </c>
       <c r="I10">
-        <v>0.3495454860807646</v>
+        <v>0.3963394210897649</v>
       </c>
       <c r="J10">
-        <v>0.3495454860807646</v>
+        <v>0.396339421089765</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>620.4684220013634</v>
+        <v>60.28605960010499</v>
       </c>
       <c r="R10">
-        <v>5584.215798012271</v>
+        <v>542.5745364009449</v>
       </c>
       <c r="S10">
-        <v>0.02386642255263962</v>
+        <v>0.00258572597804728</v>
       </c>
       <c r="T10">
-        <v>0.02386642255263962</v>
+        <v>0.002585725978047281</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.25121566666667</v>
+        <v>31.416885</v>
       </c>
       <c r="H11">
-        <v>78.753647</v>
+        <v>94.25065499999999</v>
       </c>
       <c r="I11">
-        <v>0.3495454860807646</v>
+        <v>0.3963394210897649</v>
       </c>
       <c r="J11">
-        <v>0.3495454860807646</v>
+        <v>0.396339421089765</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>4759.040658754398</v>
+        <v>5695.51654235433</v>
       </c>
       <c r="R11">
-        <v>42831.36592878958</v>
+        <v>51259.64888118897</v>
       </c>
       <c r="S11">
-        <v>0.1830573019988039</v>
+        <v>0.2442860784010831</v>
       </c>
       <c r="T11">
-        <v>0.1830573019988038</v>
+        <v>0.2442860784010831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.25121566666667</v>
+        <v>31.416885</v>
       </c>
       <c r="H12">
-        <v>78.753647</v>
+        <v>94.25065499999999</v>
       </c>
       <c r="I12">
-        <v>0.3495454860807646</v>
+        <v>0.3963394210897649</v>
       </c>
       <c r="J12">
-        <v>0.3495454860807646</v>
+        <v>0.396339421089765</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>791.2914263881495</v>
+        <v>912.587381214015</v>
       </c>
       <c r="R12">
-        <v>7121.622837493345</v>
+        <v>8213.286430926135</v>
       </c>
       <c r="S12">
-        <v>0.03043715824174369</v>
+        <v>0.03914173383524813</v>
       </c>
       <c r="T12">
-        <v>0.03043715824174369</v>
+        <v>0.03914173383524815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.25121566666667</v>
+        <v>31.416885</v>
       </c>
       <c r="H13">
-        <v>78.753647</v>
+        <v>94.25065499999999</v>
       </c>
       <c r="I13">
-        <v>0.3495454860807646</v>
+        <v>0.3963394210897649</v>
       </c>
       <c r="J13">
-        <v>0.3495454860807646</v>
+        <v>0.396339421089765</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>2916.524402480826</v>
+        <v>2572.24191848922</v>
       </c>
       <c r="R13">
-        <v>26248.71962232743</v>
+        <v>23150.17726640298</v>
       </c>
       <c r="S13">
-        <v>0.1121846032875775</v>
+        <v>0.1103258828753865</v>
       </c>
       <c r="T13">
-        <v>0.1121846032875775</v>
+        <v>0.1103258828753865</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.566584666666667</v>
+        <v>1.025611333333333</v>
       </c>
       <c r="H14">
-        <v>7.699754</v>
+        <v>3.076834</v>
       </c>
       <c r="I14">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="J14">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>60.66327587570245</v>
+        <v>1.968052083071777</v>
       </c>
       <c r="R14">
-        <v>545.9694828813221</v>
+        <v>17.712468747646</v>
       </c>
       <c r="S14">
-        <v>0.002333423143126021</v>
+        <v>8.441161076216526E-05</v>
       </c>
       <c r="T14">
-        <v>0.002333423143126021</v>
+        <v>8.441161076216528E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.566584666666667</v>
+        <v>1.025611333333333</v>
       </c>
       <c r="H15">
-        <v>7.699754</v>
+        <v>3.076834</v>
       </c>
       <c r="I15">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="J15">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>465.2920054407996</v>
+        <v>185.9314287532351</v>
       </c>
       <c r="R15">
-        <v>4187.628048967196</v>
+        <v>1673.382858779116</v>
       </c>
       <c r="S15">
-        <v>0.01789753550453985</v>
+        <v>0.007974774411393937</v>
       </c>
       <c r="T15">
-        <v>0.01789753550453985</v>
+        <v>0.007974774411393937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.566584666666667</v>
+        <v>1.025611333333333</v>
       </c>
       <c r="H16">
-        <v>7.699754</v>
+        <v>3.076834</v>
       </c>
       <c r="I16">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="J16">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>77.36466255966356</v>
+        <v>29.79162195201977</v>
       </c>
       <c r="R16">
-        <v>696.281963036972</v>
+        <v>268.124597568178</v>
       </c>
       <c r="S16">
-        <v>0.002975844800184288</v>
+        <v>0.001277790774857128</v>
       </c>
       <c r="T16">
-        <v>0.002975844800184288</v>
+        <v>0.001277790774857128</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.566584666666667</v>
+        <v>1.025611333333333</v>
       </c>
       <c r="H17">
-        <v>7.699754</v>
+        <v>3.076834</v>
       </c>
       <c r="I17">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="J17">
-        <v>0.03417510626056863</v>
+        <v>0.01293859025541314</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>285.1489586774229</v>
+        <v>83.9714205809271</v>
       </c>
       <c r="R17">
-        <v>2566.340628096806</v>
+        <v>755.7427852283439</v>
       </c>
       <c r="S17">
-        <v>0.01096830281271848</v>
+        <v>0.00360161345839991</v>
       </c>
       <c r="T17">
-        <v>0.01096830281271848</v>
+        <v>0.003601613458399911</v>
       </c>
     </row>
   </sheetData>
